--- a/用例/海獭带你游公众号测试用例.xlsx
+++ b/用例/海獭带你游公众号测试用例.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304">
   <si>
     <t>项目名称：</t>
   </si>
@@ -717,6 +717,15 @@
   </si>
   <si>
     <t>进入我的团客-激活hita卡，绑定正确hita后，再次扫码绑定</t>
+  </si>
+  <si>
+    <t>检查核销页面及核销完成页面</t>
+  </si>
+  <si>
+    <t>核销完成后，点击进入我的优惠列表</t>
+  </si>
+  <si>
+    <t>正确跳转页面，且数据正确</t>
   </si>
   <si>
     <t>参数折扣off测试</t>
@@ -999,10 +1008,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1048,30 +1057,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1079,6 +1067,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,7 +1088,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1101,7 +1126,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1115,62 +1148,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1184,9 +1172,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1207,7 +1216,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,7 +1306,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,19 +1330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,79 +1348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,25 +1366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,13 +1378,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1412,24 +1421,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1464,15 +1455,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1484,6 +1466,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1505,6 +1505,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1521,149 +1530,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1675,9 +1684,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2082,104 +2088,104 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>42920</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -2214,18 +2220,18 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="29" customHeight="1" spans="1:10">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
@@ -2248,7 +2254,7 @@
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
@@ -2263,7 +2269,7 @@
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
@@ -2272,18 +2278,18 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="31" customHeight="1" spans="1:10">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
@@ -2351,10 +2357,12 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -2397,251 +2405,256 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="2" customHeight="1" spans="2:8">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:8">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:5">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
       <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>224</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>228</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:5">
       <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>235</v>
@@ -2649,40 +2662,37 @@
     </row>
     <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:5">
+      <c r="A25" s="2">
         <v>22</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:2">
-      <c r="A25" s="2">
+      <c r="C25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:2">
+      <c r="A26" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="2">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>241</v>
@@ -2696,72 +2706,69 @@
     </row>
     <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:5">
       <c r="A29" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>242</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:5">
       <c r="A31" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:5">
       <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>252</v>
@@ -2769,91 +2776,91 @@
     </row>
     <row r="33" customHeight="1" spans="1:5">
       <c r="A33" s="2">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:5">
       <c r="A34" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>242</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:5">
       <c r="A35" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:5">
       <c r="A36" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:5">
       <c r="A37" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E37" s="5" t="s">
         <v>261</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:5">
       <c r="A38" s="2">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="4" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:5">
       <c r="A39" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>265</v>
@@ -2862,7 +2869,7 @@
         <v>266</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>267</v>
@@ -2870,7 +2877,7 @@
     </row>
     <row r="40" customHeight="1" spans="1:5">
       <c r="A40" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>268</v>
@@ -2879,7 +2886,7 @@
         <v>269</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>270</v>
@@ -2887,38 +2894,41 @@
     </row>
     <row r="41" customHeight="1" spans="1:5">
       <c r="A41" s="2">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:5">
       <c r="A42" s="2">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>273</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E42" s="1" t="s">
+    </row>
+    <row r="43" customHeight="1" spans="1:5">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="2">
-        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>277</v>
@@ -2926,49 +2936,46 @@
       <c r="D43" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:5">
+      <c r="E43" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:4">
       <c r="A44" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
         <v>280</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:5">
       <c r="A45" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>282</v>
+      </c>
       <c r="E45" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:5">
       <c r="A46" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D46" s="1"/>
+        <v>284</v>
+      </c>
       <c r="E46" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:5">
       <c r="A47" s="2">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>286</v>
@@ -2977,56 +2984,59 @@
         <v>287</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:4">
+    <row r="48" customHeight="1" spans="1:5">
       <c r="A48" s="2">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:4">
+      <c r="A49" s="2">
         <v>46</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:5">
-      <c r="A49" s="2">
-        <v>47</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:5">
       <c r="A50" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:5">
       <c r="A51" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:5">
       <c r="A52" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>295</v>
@@ -3034,38 +3044,46 @@
     </row>
     <row r="53" customHeight="1" spans="1:5">
       <c r="A53" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:5">
       <c r="A54" s="2">
+        <v>51</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:5">
+      <c r="A55" s="2">
         <v>52</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:4">
-      <c r="C55" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>300</v>
       </c>
     </row>
+    <row r="56" customHeight="1" spans="3:4">
+      <c r="C56" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:H2"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -3096,104 +3114,104 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>42920</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -3228,18 +3246,18 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" customHeight="1" spans="3:7">
       <c r="C9" s="1" t="s">
@@ -3300,18 +3318,18 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" customHeight="1" spans="3:5">
       <c r="C16" s="1" t="s">
@@ -3391,104 +3409,104 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>42920</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -3523,18 +3541,18 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C9" s="1" t="s">
@@ -3584,18 +3602,18 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="3:5">
       <c r="C15" s="1" t="s">
@@ -3655,8 +3673,8 @@
   <sheetPr/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1"/>
@@ -3675,104 +3693,104 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>42920</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -3807,18 +3825,18 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="42" customHeight="1" spans="3:7">
       <c r="C9" s="1" t="s">
@@ -3877,18 +3895,18 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="42" customHeight="1"/>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="3:5">
       <c r="C16" s="1" t="s">
@@ -3967,104 +3985,104 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>42920</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -4099,18 +4117,18 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="42" customHeight="1" spans="3:7">
       <c r="C9" s="1" t="s">
@@ -4152,18 +4170,18 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="42" customHeight="1"/>
     <row r="14" s="1" customFormat="1" ht="42" customHeight="1" spans="1:10">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" ht="62" customHeight="1" spans="5:7">
       <c r="E15" s="1" t="s">
@@ -4455,18 +4473,18 @@
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="42" customHeight="1" spans="1:10">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="42" customHeight="1" spans="5:7">
       <c r="E53" s="1" t="s">
@@ -4494,18 +4512,18 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="42" customHeight="1"/>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="3:5">
       <c r="C58" s="1" t="s">
@@ -4675,7 +4693,7 @@
       <c r="C7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4700,7 +4718,7 @@
       <c r="C9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4711,7 +4729,7 @@
       <c r="C10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4722,7 +4740,7 @@
       <c r="C11" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4733,7 +4751,7 @@
       <c r="C12" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4770,7 +4788,7 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/用例/海獭带你游公众号测试用例.xlsx
+++ b/用例/海獭带你游公众号测试用例.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306">
   <si>
     <t>项目名称：</t>
   </si>
@@ -728,6 +728,9 @@
     <t>正确跳转页面，且数据正确</t>
   </si>
   <si>
+    <t>折扣券</t>
+  </si>
+  <si>
     <t>参数折扣off测试</t>
   </si>
   <si>
@@ -1001,6 +1004,9 @@
   </si>
   <si>
     <t>如99.1，99.5</t>
+  </si>
+  <si>
+    <t>代金券和兑换券(除去折扣OFF，其它参数同上)</t>
   </si>
 </sst>
 </file>
@@ -1008,10 +1014,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1057,14 +1063,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1072,15 +1070,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1088,45 +1087,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1141,6 +1102,44 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1149,16 +1148,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,7 +1187,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,23 +1200,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1216,7 +1222,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,7 +1252,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,55 +1324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,31 +1342,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,55 +1396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,17 +1431,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1455,25 +1485,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1488,17 +1505,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1511,17 +1528,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1530,10 +1536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1542,133 +1548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1685,6 +1691,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1708,9 +1717,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2088,104 +2094,104 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>42920</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -2278,18 +2284,18 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="31" customHeight="1" spans="1:10">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
@@ -2357,12 +2363,12 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -2431,172 +2437,173 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>218</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>219</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>222</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:5">
       <c r="A15" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>226</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>230</v>
@@ -2604,35 +2611,35 @@
     </row>
     <row r="19" customHeight="1" spans="1:5">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="2">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="2">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>230</v>
@@ -2640,93 +2647,90 @@
     </row>
     <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>234</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:5">
+      <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:2">
-      <c r="A26" s="2">
+      <c r="C26" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:2">
+      <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:5">
-      <c r="A27" s="2">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:5">
       <c r="A29" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>247</v>
@@ -2734,27 +2738,27 @@
     </row>
     <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:5">
       <c r="A31" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>250</v>
@@ -2762,72 +2766,72 @@
     </row>
     <row r="32" customHeight="1" spans="1:5">
       <c r="A32" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:5">
       <c r="A33" s="2">
-        <v>30</v>
-      </c>
-      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:5">
       <c r="A34" s="2">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:5">
       <c r="A35" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:5">
       <c r="A36" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>260</v>
@@ -2835,255 +2839,285 @@
     </row>
     <row r="37" customHeight="1" spans="1:5">
       <c r="A37" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:5">
       <c r="A38" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:5">
       <c r="A39" s="2">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:5">
       <c r="A40" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:5">
       <c r="A41" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:5">
       <c r="A42" s="2">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:5">
       <c r="A43" s="2">
+        <v>39</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:5">
+      <c r="A44" s="2">
         <v>40</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:4">
-      <c r="A44" s="2">
+      <c r="E44" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:4">
+      <c r="A45" s="2">
         <v>41</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:5">
-      <c r="A45" s="2">
-        <v>42</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:5">
       <c r="A46" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:5">
       <c r="A47" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:5">
       <c r="A48" s="2">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:5">
+      <c r="A49" s="2">
         <v>45</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:4">
-      <c r="A49" s="2">
+      <c r="E49" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:4">
+      <c r="A50" s="2">
         <v>46</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:5">
-      <c r="A50" s="2">
-        <v>47</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>293</v>
+      <c r="D50" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:5">
       <c r="A51" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:5">
       <c r="A52" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:5">
       <c r="A53" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:5">
       <c r="A54" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:5">
       <c r="A55" s="2">
+        <v>51</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:5">
+      <c r="A56" s="2">
         <v>52</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:4">
-      <c r="C56" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D56" s="1" t="s">
+    </row>
+    <row r="57" customHeight="1" spans="3:4">
+      <c r="C57" s="5" t="s">
         <v>303</v>
       </c>
+      <c r="D57" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:8">
+      <c r="A58" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A58:H58"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -3114,104 +3148,104 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>42920</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -3246,18 +3280,18 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="3:7">
       <c r="C9" s="1" t="s">
@@ -3318,18 +3352,18 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" customHeight="1" spans="3:5">
       <c r="C16" s="1" t="s">
@@ -3409,104 +3443,104 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>42920</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -3541,18 +3575,18 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C9" s="1" t="s">
@@ -3602,18 +3636,18 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="3:5">
       <c r="C15" s="1" t="s">
@@ -3693,104 +3727,104 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>42920</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -3825,18 +3859,18 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="42" customHeight="1" spans="3:7">
       <c r="C9" s="1" t="s">
@@ -3895,18 +3929,18 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="42" customHeight="1"/>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="3:5">
       <c r="C16" s="1" t="s">
@@ -3985,104 +4019,104 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>42920</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -4117,18 +4151,18 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="42" customHeight="1" spans="3:7">
       <c r="C9" s="1" t="s">
@@ -4170,18 +4204,18 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="42" customHeight="1"/>
     <row r="14" s="1" customFormat="1" ht="42" customHeight="1" spans="1:10">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" ht="62" customHeight="1" spans="5:7">
       <c r="E15" s="1" t="s">
@@ -4473,18 +4507,18 @@
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="42" customHeight="1" spans="1:10">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="42" customHeight="1" spans="5:7">
       <c r="E53" s="1" t="s">
@@ -4512,18 +4546,18 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="42" customHeight="1"/>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="3:5">
       <c r="C58" s="1" t="s">
@@ -4693,7 +4727,7 @@
       <c r="C7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4718,7 +4752,7 @@
       <c r="C9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4729,7 +4763,7 @@
       <c r="C10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4740,7 +4774,7 @@
       <c r="C11" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4751,7 +4785,7 @@
       <c r="C12" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>168</v>
       </c>
     </row>

--- a/用例/海獭带你游公众号测试用例.xlsx
+++ b/用例/海獭带你游公众号测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="6" activeTab="9"/>
+    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="公众号绑卡" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="coupon-优惠-优惠商户" sheetId="6" r:id="rId8"/>
     <sheet name="coupon-绑定hita卡" sheetId="9" r:id="rId9"/>
     <sheet name="coupon-领券与核销" sheetId="10" r:id="rId10"/>
+    <sheet name="hita卡领券和核销" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317">
   <si>
     <t>项目名称：</t>
   </si>
@@ -686,6 +687,12 @@
     <t>进入优惠卡券列表，选择一条卡券，点击，进入卡券详情页面</t>
   </si>
   <si>
+    <t>进入优惠卡券列表，多次点击 加载更多</t>
+  </si>
+  <si>
+    <t>查看加载出来的数据是否正确（重复）</t>
+  </si>
+  <si>
     <t>进入我的团客-激活hita卡，扫码有效的二维码</t>
   </si>
   <si>
@@ -719,6 +726,9 @@
     <t>进入我的团客-激活hita卡，绑定正确hita后，再次扫码绑定</t>
   </si>
   <si>
+    <t>领取卡券页面和领取卡券成功页面</t>
+  </si>
+  <si>
     <t>检查核销页面及核销完成页面</t>
   </si>
   <si>
@@ -728,6 +738,18 @@
     <t>正确跳转页面，且数据正确</t>
   </si>
   <si>
+    <t>在admin平台-已审核卡券中，对卡券进行禁止领取、禁止核销或禁止发放</t>
+  </si>
+  <si>
+    <t>功能是否正确</t>
+  </si>
+  <si>
+    <t>所有卡券核销后，需要检查打印的小票，小票的值（各种参数，时间），nest系统的交易记录</t>
+  </si>
+  <si>
+    <t>打印小票正确，时间正确，nest系统交易记录正确</t>
+  </si>
+  <si>
     <t>折扣券</t>
   </si>
   <si>
@@ -792,6 +814,9 @@
   </si>
   <si>
     <t>设置有效时间等于当前时间</t>
+  </si>
+  <si>
+    <t>领取后，在优惠卡券和商户卡券列表查看，有效日期为当天0点到24点</t>
   </si>
   <si>
     <t>设置有效时间区间</t>
@@ -831,18 +856,18 @@
     <t>用一个用户领取</t>
   </si>
   <si>
-    <t>只能被领取一次，第二次报：领取失败</t>
-  </si>
-  <si>
-    <t>第一个领取成功，第二个用户报：领取失败</t>
+    <t>只能被领取一次，第二次报：未找到数据</t>
+  </si>
+  <si>
+    <t>设置发放总数为5，领取2次后，再次领取</t>
+  </si>
+  <si>
+    <t>只能被领取2次，第3次报：领取失败</t>
   </si>
   <si>
     <t>设置发放总数为5，领取5次后，再次领取</t>
   </si>
   <si>
-    <t>只能被领取5次，第6次报：领取失败</t>
-  </si>
-  <si>
     <t>一共领取五次后，第6次报：领取失败</t>
   </si>
   <si>
@@ -867,10 +892,13 @@
     <t>一个用户核销成功后，两个用户的卡券都不再显示</t>
   </si>
   <si>
+    <t>核销总数设置为2</t>
+  </si>
+  <si>
+    <t>核销2次后，此卡券在列表中不再显示</t>
+  </si>
+  <si>
     <t>核销总数设置为3</t>
-  </si>
-  <si>
-    <t>核销3次后，此卡券在列表中不再显示</t>
   </si>
   <si>
     <t>共核销3次后，此卡券在列表中都不再显示</t>
@@ -934,7 +962,7 @@
     <t>交易金额不限制</t>
   </si>
   <si>
-    <t>新建两张券，最低消费金额设置为50,100</t>
+    <t>新建两张券，最低消费金额设置为50,100（可以与最高优惠公用）</t>
   </si>
   <si>
     <t>用户A，领取这两张卡券</t>
@@ -967,7 +995,7 @@
     <t>没有优惠限制</t>
   </si>
   <si>
-    <t>新建两张卡券，最高优惠设置为99,199，折扣OFF为10</t>
+    <t>新建两张卡券，最高优惠设置为99,199，折扣OFF为10（可以与最低消费公用）</t>
   </si>
   <si>
     <t>交易金额输入900</t>
@@ -982,7 +1010,7 @@
     <t>交易完成，优惠金额为99</t>
   </si>
   <si>
-    <t>交易金额输入100</t>
+    <t>交易金额输入991</t>
   </si>
   <si>
     <t>交易金额输入1900</t>
@@ -997,7 +1025,13 @@
     <t>交易完成，优惠金额为199</t>
   </si>
   <si>
-    <t>交易金额输入2000</t>
+    <t>交易金额输入1991</t>
+  </si>
+  <si>
+    <t>最高优惠金额为0</t>
+  </si>
+  <si>
+    <t>不进行优惠</t>
   </si>
   <si>
     <t>折扣OFF与金额计算后的四舍五入情况，暂不考虑</t>
@@ -1015,9 +1049,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1037,6 +1071,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1044,12 +1084,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1185,9 +1219,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1200,19 +1233,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1222,7 +1262,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,25 +1304,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,13 +1328,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,13 +1364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,7 +1388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,13 +1406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,13 +1430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,13 +1448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,10 +1588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1548,137 +1600,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1692,9 +1744,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1706,10 +1782,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1718,10 +1794,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2094,104 +2170,104 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="20">
         <v>42920</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -2226,18 +2302,18 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="29" customHeight="1" spans="1:10">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
@@ -2260,7 +2336,7 @@
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
@@ -2275,7 +2351,7 @@
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
@@ -2284,18 +2360,18 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="31" customHeight="1" spans="1:10">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
@@ -2363,12 +2439,12 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -2411,10 +2487,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="2:8">
+    <row r="2" s="1" customFormat="1" ht="34" customHeight="1" spans="1:8">
+      <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
@@ -2427,425 +2504,420 @@
     <row r="3" customHeight="1" spans="2:8">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="4" customHeight="1" spans="2:8">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:8">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:8">
+      <c r="B6" s="2"/>
+      <c r="C6" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:8">
+      <c r="B7" s="2"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:5">
       <c r="A15" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
       <c r="A16" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">
       <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:5">
       <c r="A19" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="2">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>230</v>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="2">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E23" s="1" t="s">
         <v>236</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>237</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="2">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:2">
+        <v>241</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="2">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>241</v>
+        <v>19</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:5">
       <c r="A29" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D29" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="9" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E30" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:5">
+    <row r="31" customHeight="1" spans="1:2">
       <c r="A31" s="2">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:5">
       <c r="A32" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E32" s="1" t="s">
         <v>251</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:5">
       <c r="A33" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E33" s="1" t="s">
         <v>253</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:5">
       <c r="A34" s="2">
-        <v>30</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>255</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:5">
       <c r="A35" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:5">
       <c r="A36" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:5">
       <c r="A37" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>261</v>
@@ -2853,41 +2925,44 @@
     </row>
     <row r="38" customHeight="1" spans="1:5">
       <c r="A38" s="2">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:5">
       <c r="A39" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E39" s="5" t="s">
         <v>265</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:5">
       <c r="A40" s="2">
-        <v>36</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>268</v>
@@ -2895,229 +2970,312 @@
     </row>
     <row r="41" customHeight="1" spans="1:5">
       <c r="A41" s="2">
-        <v>37</v>
-      </c>
-      <c r="B41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:5">
       <c r="A42" s="2">
-        <v>38</v>
-      </c>
-      <c r="B42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:5">
       <c r="A43" s="2">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:5">
       <c r="A44" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C44" s="1" t="s">
+    </row>
+    <row r="45" customHeight="1" spans="1:5">
+      <c r="A45" s="2">
+        <v>37</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="D45" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:4">
-      <c r="A45" s="2">
-        <v>41</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:5">
       <c r="A46" s="2">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:5">
       <c r="A47" s="2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:5">
       <c r="A48" s="2">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="D48" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="E48" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:4">
       <c r="A49" s="2">
-        <v>45</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:4">
+    <row r="50" customHeight="1" spans="1:5">
       <c r="A50" s="2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>282</v>
+      <c r="E50" s="9" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:5">
       <c r="A51" s="2">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E51" s="1" t="s">
         <v>294</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:5">
       <c r="A52" s="2">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E52" s="1" t="s">
         <v>296</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:5">
       <c r="A53" s="2">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:5">
+        <v>299</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:4">
       <c r="A54" s="2">
-        <v>50</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>299</v>
+        <v>46</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:5">
       <c r="A55" s="2">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:5">
       <c r="A56" s="2">
+        <v>48</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:5">
+      <c r="A57" s="2">
+        <v>49</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:5">
+      <c r="A58" s="2">
+        <v>50</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:5">
+      <c r="A59" s="2">
+        <v>51</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:5">
+      <c r="A60" s="2">
         <v>52</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="3:4">
-      <c r="C57" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:8">
-      <c r="A58" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
+      <c r="C60" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:5">
+      <c r="A61" s="2">
+        <v>53</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:4">
+      <c r="C62" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:8">
+      <c r="A63" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A63:H63"/>
   </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -3148,104 +3306,104 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="20">
         <v>42920</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -3280,18 +3438,18 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="3:7">
       <c r="C9" s="1" t="s">
@@ -3352,18 +3510,18 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="3:5">
       <c r="C16" s="1" t="s">
@@ -3443,104 +3601,104 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="20">
         <v>42920</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -3575,18 +3733,18 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="3:7">
       <c r="C9" s="1" t="s">
@@ -3636,18 +3794,18 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="3:5">
       <c r="C15" s="1" t="s">
@@ -3727,104 +3885,104 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="20">
         <v>42920</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -3859,18 +4017,18 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="42" customHeight="1" spans="3:7">
       <c r="C9" s="1" t="s">
@@ -3929,18 +4087,18 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="42" customHeight="1"/>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="3:5">
       <c r="C16" s="1" t="s">
@@ -4019,104 +4177,104 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="20">
         <v>42920</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -4151,18 +4309,18 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="42" customHeight="1" spans="3:7">
       <c r="C9" s="1" t="s">
@@ -4204,18 +4362,18 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="42" customHeight="1"/>
     <row r="14" s="1" customFormat="1" ht="42" customHeight="1" spans="1:10">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" ht="62" customHeight="1" spans="5:7">
       <c r="E15" s="1" t="s">
@@ -4507,18 +4665,18 @@
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="42" customHeight="1" spans="1:10">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="42" customHeight="1" spans="5:7">
       <c r="E53" s="1" t="s">
@@ -4546,18 +4704,18 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="42" customHeight="1"/>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="3:5">
       <c r="C58" s="1" t="s">
@@ -4618,7 +4776,7 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -4727,7 +4885,7 @@
       <c r="C7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="13" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4752,7 +4910,7 @@
       <c r="C9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="13" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4763,7 +4921,7 @@
       <c r="C10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="13" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4774,7 +4932,7 @@
       <c r="C11" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="13" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4785,7 +4943,7 @@
       <c r="C12" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="13" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4820,10 +4978,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -4962,6 +5120,14 @@
         <v>180</v>
       </c>
     </row>
+    <row r="14" customHeight="1" spans="3:5">
+      <c r="C14" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -4974,19 +5140,19 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.2" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.7416666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.7916666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.9083333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.025" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.65" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7833333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.2" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.025" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="1" customWidth="1"/>
     <col min="9" max="16381" width="20.625" style="1" customWidth="1"/>
     <col min="16382" max="16382" width="20.625" style="1"/>
   </cols>
@@ -5076,11 +5242,11 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -5088,58 +5254,58 @@
     </row>
     <row r="3" customHeight="1" spans="3:5">
       <c r="C3" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:5">
       <c r="C4" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:5">
       <c r="C5" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:5">
       <c r="C6" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:5">
       <c r="C7" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:5">
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:5">
       <c r="C9" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/用例/海獭带你游公众号测试用例.xlsx
+++ b/用例/海獭带你游公众号测试用例.xlsx
@@ -17,14 +17,14 @@
     <sheet name="coupon-优惠-优惠商户" sheetId="6" r:id="rId8"/>
     <sheet name="coupon-绑定hita卡" sheetId="9" r:id="rId9"/>
     <sheet name="coupon-领券与核销" sheetId="10" r:id="rId10"/>
-    <sheet name="hita卡领券和核销" sheetId="11" r:id="rId11"/>
+    <sheet name="主流程" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374">
   <si>
     <t>项目名称：</t>
   </si>
@@ -753,6 +753,9 @@
     <t>折扣券</t>
   </si>
   <si>
+    <t>两个用户，一个绑定手机，一个不绑</t>
+  </si>
+  <si>
     <t>参数折扣off测试</t>
   </si>
   <si>
@@ -1040,7 +1043,259 @@
     <t>如99.1，99.5</t>
   </si>
   <si>
-    <t>代金券和兑换券(除去折扣OFF，其它参数同上)</t>
+    <r>
+      <t>代金券和兑换券(除去折扣OFF，其它参数同上)，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hita卡领取和核销同上(核销逻辑相同)</t>
+    </r>
+  </si>
+  <si>
+    <t>hita卡领券和核销</t>
+  </si>
+  <si>
+    <t>要求： 卡 A 绑定公众号，卡 B 不绑定</t>
+  </si>
+  <si>
+    <t>折扣off</t>
+  </si>
+  <si>
+    <t>折扣off参数，生成计划</t>
+  </si>
+  <si>
+    <t>off值测试一个即可</t>
+  </si>
+  <si>
+    <r>
+      <t>使用 A 绑定计划，查看nest和公众号中的卡券列表是否正确
+使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扫码核销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的方式核销该卡券</t>
+    </r>
+  </si>
+  <si>
+    <t>卡券列表显示正确，核销正确</t>
+  </si>
+  <si>
+    <r>
+      <t>使用 A 绑定计划，查看nest和公众号中的卡券列表是否正确
+使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hita卡核销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的方式核销该卡券</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>使用 B 绑定计划，查看nest中的卡券列表是否正确
+使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hita卡核销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的方式核销该卡券</t>
+    </r>
+  </si>
+  <si>
+    <t>设置有效天数为1天
+使用 A 绑定计划</t>
+  </si>
+  <si>
+    <t>nest和公众号</t>
+  </si>
+  <si>
+    <t>卡券列表显示正确</t>
+  </si>
+  <si>
+    <t>设置有效天数为1天
+使用 A 绑定计划一天后</t>
+  </si>
+  <si>
+    <t>卡券过期，卡券列表不显示</t>
+  </si>
+  <si>
+    <t>设置有效天数为1天
+使用 A 绑定计划，卡券过期后，进行碰卡核销</t>
+  </si>
+  <si>
+    <t>找不到可用优惠</t>
+  </si>
+  <si>
+    <t>设置有效区间
+使用 A 绑定计划</t>
+  </si>
+  <si>
+    <t>设置有效区间
+使用 A 绑定计划，过期后查看</t>
+  </si>
+  <si>
+    <t>卡券</t>
+  </si>
+  <si>
+    <t>设置有效区间
+使用 A 绑定计划，卡券过期后，进行碰卡核销</t>
+  </si>
+  <si>
+    <t>设置有效区间大于当前时间
+使用 A 绑定计划，进行碰卡核销</t>
+  </si>
+  <si>
+    <t>找不到可用优惠（未生效）</t>
+  </si>
+  <si>
+    <t>设置发放总数5
+使用 A 绑定计划 ，手机号 及 扫码领取（同一个用户）
+再使用 B 领取2张</t>
+  </si>
+  <si>
+    <t>共领取5张，领第6次报错</t>
+  </si>
+  <si>
+    <t>核销总数设置为2
+使用 A 绑定计划，hita卡核销两次后，再次核销</t>
+  </si>
+  <si>
+    <t>核销2次后，此卡券在列表中不再显示，再次核销：找不到可用优惠</t>
+  </si>
+  <si>
+    <t>核销总数设置为2
+使用 A 绑定计划，用扫码核销两次</t>
+  </si>
+  <si>
+    <t>核销总数设置为2
+使用 A 绑定计划，用扫码核销两次
+再使用 hita进行核销</t>
+  </si>
+  <si>
+    <t>不可核销，找不到可用优惠</t>
+  </si>
+  <si>
+    <t>测试数据</t>
+  </si>
+  <si>
+    <t>新建流量方</t>
+  </si>
+  <si>
+    <t>新建流量方成功</t>
+  </si>
+  <si>
+    <t>新建代理方</t>
+  </si>
+  <si>
+    <t>新建代理成功</t>
+  </si>
+  <si>
+    <t>用代理方登录，新建商户，签约商户</t>
+  </si>
+  <si>
+    <t>登录成功，新建商户成功</t>
+  </si>
+  <si>
+    <t>用商户登录，设置对外素材</t>
+  </si>
+  <si>
+    <t>登录成，设置成功</t>
+  </si>
+  <si>
+    <t>新建卡券，并发布</t>
+  </si>
+  <si>
+    <t>新建成功，发布成功</t>
+  </si>
+  <si>
+    <t>审核卡券</t>
+  </si>
+  <si>
+    <t>审核成功</t>
+  </si>
+  <si>
+    <t>流量方登录，生成计划</t>
+  </si>
+  <si>
+    <t>登录成功，生成计划成功</t>
+  </si>
+  <si>
+    <t>使用微信扫码领券</t>
+  </si>
+  <si>
+    <t>领取成功，公众号中有数据</t>
+  </si>
+  <si>
+    <t>使用会打扫码核销</t>
+  </si>
+  <si>
+    <t>核销成功</t>
+  </si>
+  <si>
+    <t>使用公众号扫码申请积分</t>
+  </si>
+  <si>
+    <t>积分申请成功</t>
+  </si>
+  <si>
+    <t>给流量方分配hita卡</t>
+  </si>
+  <si>
+    <t>分配成功</t>
+  </si>
+  <si>
+    <t>在流量方中用hita卡绑定计划</t>
+  </si>
+  <si>
+    <t>绑定成功，hita中有卡券记录</t>
+  </si>
+  <si>
+    <t>使用会打和hita卡进行卡券核销</t>
+  </si>
+  <si>
+    <t>兑换成功</t>
   </si>
 </sst>
 </file>
@@ -1049,11 +1304,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1240,6 +1495,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -1250,7 +1513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,7 +1525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,7 +1722,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1471,6 +1734,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1591,7 +1891,7 @@
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1621,7 +1921,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1639,28 +1939,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1669,10 +1969,10 @@
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1730,69 +2030,87 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2156,262 +2474,262 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="16383" width="20.625" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="20.625" style="1"/>
+    <col min="1" max="1" width="19" style="18" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="27" style="18" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="38" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="18" customWidth="1"/>
+    <col min="7" max="7" width="34.375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="10" style="18" customWidth="1"/>
+    <col min="10" max="16383" width="20.625" style="18" customWidth="1"/>
+    <col min="16384" max="16384" width="20.625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="17" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="19" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="25">
         <v>42920</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="14" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="14" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="29" customHeight="1" spans="1:10">
-      <c r="A8" s="21" t="s">
+    <row r="8" s="18" customFormat="1" ht="29" customHeight="1" spans="1:10">
+      <c r="A8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" s="18" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="18" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="18" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="31" customHeight="1" spans="1:10">
-      <c r="A12" s="6" t="s">
+    <row r="12" s="18" customFormat="1" ht="31" customHeight="1" spans="1:10">
+      <c r="A12" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="1:7">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" ht="68" customHeight="1" spans="1:7">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2439,12 +2757,12 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -2459,31 +2777,32 @@
     <col min="8" max="8" width="10.1416666666667" style="1" customWidth="1"/>
     <col min="9" max="16381" width="20.625" style="1" customWidth="1"/>
     <col min="16382" max="16382" width="20.625" style="1"/>
+    <col min="16383" max="16384" width="20.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2542,7 +2861,7 @@
     </row>
     <row r="6" customHeight="1" spans="2:8">
       <c r="B6" s="2"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>218</v>
       </c>
       <c r="D6" s="2"/>
@@ -2555,7 +2874,7 @@
     </row>
     <row r="7" customHeight="1" spans="2:8">
       <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2574,691 +2893,901 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="9" customHeight="1" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8" t="s">
-        <v>223</v>
-      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>223</v>
+      <c r="D11" s="5"/>
+      <c r="E11" s="10" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9" t="s">
-        <v>223</v>
+      <c r="E12" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>223</v>
+      <c r="D13" s="5"/>
+      <c r="E13" s="10" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8" t="s">
-        <v>223</v>
+      <c r="E14" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:5">
       <c r="A15" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>223</v>
+      <c r="D15" s="5"/>
+      <c r="E15" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
       <c r="A16" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>230</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">
       <c r="A18" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>231</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:5">
       <c r="A19" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>232</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="9" t="s">
-        <v>223</v>
+      <c r="E20" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9" t="s">
-        <v>223</v>
+      <c r="D21" s="5"/>
+      <c r="E21" s="10" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="2">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>237</v>
+      <c r="D22" s="5"/>
+      <c r="E22" s="10" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="2">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="2">
-        <v>17</v>
-      </c>
-      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>242</v>
+      <c r="E25" s="10" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="2">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>238</v>
+        <v>242</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:5">
       <c r="A29" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>247</v>
+      <c r="E29" s="10" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:2">
+    <row r="31" customHeight="1" spans="1:5">
       <c r="A31" s="2">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:2">
+      <c r="A32" s="2">
         <v>23</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="2">
-        <v>24</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:5">
       <c r="A33" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:5">
       <c r="A34" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E34" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>255</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:5">
       <c r="A35" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:5">
       <c r="A36" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:5">
       <c r="A37" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:5">
       <c r="A38" s="2">
-        <v>30</v>
-      </c>
-      <c r="B38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:5">
       <c r="A39" s="2">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:5">
       <c r="A40" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>267</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:5">
       <c r="A41" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:5">
       <c r="A42" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:5">
       <c r="A43" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:5">
       <c r="A44" s="2">
-        <v>36</v>
-      </c>
-      <c r="B44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:5">
       <c r="A45" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>278</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:5">
       <c r="A46" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>281</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:5">
       <c r="A47" s="2">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:5">
       <c r="A48" s="2">
+        <v>39</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:5">
+      <c r="A49" s="2">
         <v>40</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:4">
-      <c r="A49" s="2">
+      <c r="E49" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:4">
+      <c r="A50" s="2">
         <v>41</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="C50" s="12" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:5">
-      <c r="A50" s="2">
-        <v>42</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:5">
       <c r="A51" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>294</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:5">
       <c r="A52" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>296</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:5">
       <c r="A53" s="2">
+        <v>44</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:5">
+      <c r="A54" s="2">
         <v>45</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="C54" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:4">
-      <c r="A54" s="2">
+      <c r="E54" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:4">
+      <c r="A55" s="2">
         <v>46</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:5">
-      <c r="A55" s="2">
-        <v>47</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>303</v>
+      <c r="D55" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:5">
       <c r="A56" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>304</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:5">
       <c r="A57" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>306</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:5">
       <c r="A58" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>308</v>
+      <c r="E58" s="10" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:5">
       <c r="A59" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>309</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:5">
       <c r="A60" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>311</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:5">
       <c r="A61" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:5">
+      <c r="A62" s="2">
+        <v>53</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="62" customHeight="1" spans="3:4">
-      <c r="C62" s="13" t="s">
+      <c r="E62" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D62" s="1" t="s">
+    </row>
+    <row r="63" customHeight="1" spans="3:4">
+      <c r="C63" s="13" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:8">
-      <c r="A63" s="6" t="s">
+      <c r="D63" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:8">
+      <c r="A64" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:8">
+      <c r="A66" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="16"/>
+    </row>
+    <row r="67" customHeight="1" spans="3:3">
+      <c r="C67" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="2:4">
+      <c r="B68" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" ht="48" customHeight="1" spans="3:5">
+      <c r="C69" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:5">
+      <c r="C70" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:5">
+      <c r="C71" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="2:3">
+      <c r="B72" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:5">
+      <c r="C73" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:5">
+      <c r="C74" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:5">
+      <c r="C75" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="2:3">
+      <c r="B76" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:5">
+      <c r="C77" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:5">
+      <c r="C78" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:5">
+      <c r="C79" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:5">
+      <c r="C80" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="2:3">
+      <c r="B81" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:3">
+      <c r="C82" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:5">
+      <c r="C83" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="2:2">
+      <c r="B84" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:3">
+      <c r="C85" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:5">
+      <c r="C86" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:5">
+      <c r="C87" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:5">
+      <c r="C88" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>346</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="A66:H66"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3268,14 +3797,233 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="12.2" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.7416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.9083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.025" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.65" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.025" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="1" customWidth="1"/>
+    <col min="9" max="16381" width="20.625" style="1" customWidth="1"/>
+    <col min="16382" max="16382" width="20.625" style="1"/>
+    <col min="16383" max="16384" width="20.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:1">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -3292,266 +4040,266 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="16383" width="20.625" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="20.625" style="1"/>
+    <col min="1" max="1" width="19" style="18" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="27" style="18" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="38" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="18" customWidth="1"/>
+    <col min="7" max="7" width="34.375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="10" style="18" customWidth="1"/>
+    <col min="10" max="16383" width="20.625" style="18" customWidth="1"/>
+    <col min="16384" max="16384" width="20.625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="17" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="19" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="25">
         <v>42920</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="14" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="14" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" customHeight="1" spans="3:7">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:7">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:7">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:7">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" ht="52" customHeight="1" spans="3:7">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" customHeight="1" spans="3:5">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:5">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:5">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:5">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="18" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3587,255 +4335,255 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="16383" width="20.625" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="20.625" style="1"/>
+    <col min="1" max="1" width="19" style="18" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="27" style="18" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="38" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="18" customWidth="1"/>
+    <col min="7" max="7" width="34.375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="10" style="18" customWidth="1"/>
+    <col min="10" max="16383" width="20.625" style="18" customWidth="1"/>
+    <col min="16384" max="16384" width="20.625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="17" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="19" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="25">
         <v>42920</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="14" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="14" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A8" s="6" t="s">
+    <row r="8" s="18" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A8" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C9" s="1" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" s="18" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C9" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="56" customHeight="1" spans="3:7">
-      <c r="C10" s="1" t="s">
+    <row r="10" s="18" customFormat="1" ht="56" customHeight="1" spans="3:7">
+      <c r="C10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C11" s="1" t="s">
+    <row r="11" s="18" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="59" customHeight="1" spans="3:7">
-      <c r="C12" s="1" t="s">
+    <row r="12" s="18" customFormat="1" ht="59" customHeight="1" spans="3:7">
+      <c r="C12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A14" s="6" t="s">
+    <row r="14" s="18" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A14" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C15" s="1" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" s="18" customFormat="1" customHeight="1" spans="3:5">
+      <c r="C15" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C16" s="1" t="s">
+    <row r="16" s="18" customFormat="1" customHeight="1" spans="3:5">
+      <c r="C16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C17" s="1" t="s">
+    <row r="17" s="18" customFormat="1" customHeight="1" spans="3:5">
+      <c r="C17" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C18" s="1" t="s">
+    <row r="18" s="18" customFormat="1" customHeight="1" spans="3:5">
+      <c r="C18" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="18" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3871,264 +4619,264 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="16383" width="20.625" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="20.625" style="1"/>
+    <col min="1" max="1" width="19" style="18" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="27" style="18" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="38" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="18" customWidth="1"/>
+    <col min="7" max="7" width="34.375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="10" style="18" customWidth="1"/>
+    <col min="10" max="16383" width="20.625" style="18" customWidth="1"/>
+    <col min="16384" max="16384" width="20.625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="17" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="19" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="25">
         <v>42920</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="14" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="14" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A8" s="6" t="s">
+    <row r="8" s="18" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A8" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="42" customHeight="1" spans="3:7">
-      <c r="C9" s="1" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" s="18" customFormat="1" ht="42" customHeight="1" spans="3:7">
+      <c r="C9" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="42" customHeight="1" spans="3:7">
-      <c r="C10" s="1" t="s">
+    <row r="10" s="18" customFormat="1" ht="42" customHeight="1" spans="3:7">
+      <c r="C10" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="42" customHeight="1" spans="3:7">
-      <c r="C11" s="1" t="s">
+    <row r="11" s="18" customFormat="1" ht="42" customHeight="1" spans="3:7">
+      <c r="C11" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="42" customHeight="1" spans="3:7">
-      <c r="C12" s="1" t="s">
+    <row r="12" s="18" customFormat="1" ht="42" customHeight="1" spans="3:7">
+      <c r="C12" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="42" customHeight="1" spans="3:7">
-      <c r="C13" s="1" t="s">
+    <row r="13" s="18" customFormat="1" ht="42" customHeight="1" spans="3:7">
+      <c r="C13" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="42" customHeight="1"/>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A15" s="6" t="s">
+    <row r="14" s="18" customFormat="1" ht="42" customHeight="1"/>
+    <row r="15" s="18" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A15" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C16" s="1" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" s="18" customFormat="1" customHeight="1" spans="3:5">
+      <c r="C16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C17" s="1" t="s">
+    <row r="17" s="18" customFormat="1" customHeight="1" spans="3:5">
+      <c r="C17" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C18" s="1" t="s">
+    <row r="18" s="18" customFormat="1" customHeight="1" spans="3:5">
+      <c r="C18" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C19" s="1" t="s">
+    <row r="19" s="18" customFormat="1" customHeight="1" spans="3:5">
+      <c r="C19" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="18" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4158,594 +4906,594 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="16383" width="20.625" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="20.625" style="1"/>
+    <col min="1" max="1" width="19" style="18" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="27" style="18" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="38" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="18" customWidth="1"/>
+    <col min="7" max="7" width="34.375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="10" style="18" customWidth="1"/>
+    <col min="10" max="16383" width="20.625" style="18" customWidth="1"/>
+    <col min="16384" max="16384" width="20.625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A2" s="17" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A3" s="19" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="25">
         <v>42920</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="14" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="14" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" s="18" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A8" s="6" t="s">
+    <row r="8" s="18" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A8" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="42" customHeight="1" spans="3:7">
-      <c r="C9" s="1" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" s="18" customFormat="1" ht="42" customHeight="1" spans="3:7">
+      <c r="C9" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="42" customHeight="1" spans="3:7">
-      <c r="C10" s="1" t="s">
+    <row r="10" s="18" customFormat="1" ht="42" customHeight="1" spans="3:7">
+      <c r="C10" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E11" s="1" t="s">
+    <row r="11" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E11" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E12" s="1" t="s">
+    <row r="12" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E12" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="42" customHeight="1"/>
-    <row r="14" s="1" customFormat="1" ht="42" customHeight="1" spans="1:10">
-      <c r="A14" s="6" t="s">
+    <row r="13" s="18" customFormat="1" ht="42" customHeight="1"/>
+    <row r="14" s="18" customFormat="1" ht="42" customHeight="1" spans="1:10">
+      <c r="A14" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" ht="62" customHeight="1" spans="5:7">
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E16" s="1" t="s">
+    <row r="16" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E16" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E17" s="1" t="s">
+    <row r="17" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E17" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E18" s="1" t="s">
+    <row r="18" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E18" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E19" s="1" t="s">
+    <row r="19" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E19" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E20" s="1" t="s">
+    <row r="20" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E20" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E21" s="1" t="s">
+    <row r="21" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E21" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E22" s="1" t="s">
+    <row r="22" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E22" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E23" s="1" t="s">
+    <row r="23" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E23" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E24" s="1" t="s">
+    <row r="24" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E24" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E25" s="1" t="s">
+    <row r="25" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E25" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E26" s="1" t="s">
+    <row r="26" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E26" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E27" s="1" t="s">
+    <row r="27" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E27" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E28" s="1" t="s">
+    <row r="28" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E28" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E29" s="1" t="s">
+    <row r="29" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E29" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E30" s="1" t="s">
+    <row r="30" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E30" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E31" s="1" t="s">
+    <row r="31" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E31" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E32" s="1" t="s">
+    <row r="32" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E33" s="1" t="s">
+    <row r="33" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E33" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E34" s="1" t="s">
+    <row r="34" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E34" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E35" s="1" t="s">
+    <row r="35" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E35" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E36" s="1" t="s">
+    <row r="36" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E36" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E37" s="1" t="s">
+    <row r="37" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E37" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E38" s="1" t="s">
+    <row r="38" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E38" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E39" s="1" t="s">
+    <row r="39" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E39" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E40" s="1" t="s">
+    <row r="40" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E40" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E41" s="1" t="s">
+    <row r="41" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E41" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E42" s="1" t="s">
+    <row r="42" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E42" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E43" s="1" t="s">
+    <row r="43" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E43" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E44" s="1" t="s">
+    <row r="44" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E44" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E45" s="1" t="s">
+    <row r="45" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E45" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E46" s="1" t="s">
+    <row r="46" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E46" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E47" s="1" t="s">
+    <row r="47" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E47" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E48" s="1" t="s">
+    <row r="48" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E48" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E49" s="1" t="s">
+    <row r="49" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E49" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="50" customHeight="1"/>
-    <row r="51" s="1" customFormat="1" ht="50" customHeight="1" spans="5:7">
-      <c r="E51" s="1" t="s">
+    <row r="50" s="18" customFormat="1" ht="50" customHeight="1"/>
+    <row r="51" s="18" customFormat="1" ht="50" customHeight="1" spans="5:7">
+      <c r="E51" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="42" customHeight="1" spans="1:10">
-      <c r="A52" s="6" t="s">
+    <row r="52" s="18" customFormat="1" ht="42" customHeight="1" spans="1:10">
+      <c r="A52" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="42" customHeight="1" spans="5:7">
-      <c r="E53" s="1" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" s="18" customFormat="1" ht="42" customHeight="1" spans="5:7">
+      <c r="E53" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="42" customHeight="1" spans="5:7">
-      <c r="E54" s="1" t="s">
+    <row r="54" s="18" customFormat="1" ht="42" customHeight="1" spans="5:7">
+      <c r="E54" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="42" customHeight="1" spans="5:7">
-      <c r="E55" s="1" t="s">
+    <row r="55" s="18" customFormat="1" ht="42" customHeight="1" spans="5:7">
+      <c r="E55" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="42" customHeight="1"/>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A57" s="6" t="s">
+    <row r="56" s="18" customFormat="1" ht="42" customHeight="1"/>
+    <row r="57" s="18" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A57" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-    </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C58" s="1" t="s">
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" s="18" customFormat="1" customHeight="1" spans="3:5">
+      <c r="C58" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C59" s="1" t="s">
+    <row r="59" s="18" customFormat="1" customHeight="1" spans="3:5">
+      <c r="C59" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C60" s="1" t="s">
+    <row r="60" s="18" customFormat="1" customHeight="1" spans="3:5">
+      <c r="C60" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C61" s="1" t="s">
+    <row r="61" s="18" customFormat="1" customHeight="1" spans="3:5">
+      <c r="C61" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="18" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4777,210 +5525,6 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="12.2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.7416666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.7916666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.025" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.65" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7833333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.2" style="1" customWidth="1"/>
-    <col min="9" max="16381" width="20.625" style="1" customWidth="1"/>
-    <col min="16382" max="16382" width="20.625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" ht="66" customHeight="1" spans="1:5">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -4996,31 +5540,237 @@
     <col min="8" max="8" width="32.2" style="1" customWidth="1"/>
     <col min="9" max="16381" width="20.625" style="1" customWidth="1"/>
     <col min="16382" max="16382" width="20.625" style="1"/>
+    <col min="16383" max="16384" width="20.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" ht="66" customHeight="1" spans="1:5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="12.2" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.7416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77.7916666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.025" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.65" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.2" style="1" customWidth="1"/>
+    <col min="9" max="16381" width="20.625" style="1" customWidth="1"/>
+    <col min="16382" max="16382" width="20.625" style="1"/>
+    <col min="16383" max="16384" width="20.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5140,7 +5890,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -5155,31 +5905,32 @@
     <col min="8" max="8" width="8.375" style="1" customWidth="1"/>
     <col min="9" max="16381" width="20.625" style="1" customWidth="1"/>
     <col min="16382" max="16382" width="20.625" style="1"/>
+    <col min="16383" max="16384" width="20.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5195,7 +5946,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -5210,31 +5961,32 @@
     <col min="8" max="8" width="32.2" style="1" customWidth="1"/>
     <col min="9" max="16381" width="20.625" style="1" customWidth="1"/>
     <col min="16382" max="16382" width="20.625" style="1"/>
+    <col min="16383" max="16384" width="20.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
